--- a/config/kingdom_regular.xlsx
+++ b/config/kingdom_regular.xlsx
@@ -1972,7 +1972,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>GUILDS</t>
+          <t>HINTERLANDS</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
@@ -1991,24 +1991,20 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
       <c r="B95" s="1" t="n"/>
-      <c r="C95" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -2016,16 +2012,12 @@
       <c r="B96" s="1" t="n"/>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+          <t>THREE</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr"/>
       <c r="E96" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -2034,23 +2026,19 @@
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="inlineStr">
-        <is>
-          <t>1RC</t>
-        </is>
-      </c>
+      <c r="B98" s="1" t="n"/>
       <c r="C98" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>FOUR</t>
         </is>
       </c>
       <c r="D98" s="1" t="inlineStr">
@@ -2059,30 +2047,30 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
       <c r="B99" s="1" t="n"/>
-      <c r="C99" s="1" t="n"/>
+      <c r="C99" s="1" t="inlineStr">
+        <is>
+          <t>FIVE</t>
+        </is>
+      </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
       <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C100" s="1" t="n"/>
       <c r="D100" s="1" t="inlineStr">
         <is>
           <t>ACTION - ATTACK</t>
@@ -2093,26 +2081,14 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>CORNUCOPIA_GUILDS</t>
-        </is>
-      </c>
-      <c r="B101" s="1" t="inlineStr">
-        <is>
-          <t>2ND</t>
-        </is>
-      </c>
+      <c r="A101" s="1" t="n"/>
+      <c r="B101" s="1" t="n"/>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
-        </is>
-      </c>
-      <c r="D101" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+          <t>OTHER</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr"/>
       <c r="E101" t="n">
         <v>1</v>
       </c>
@@ -2120,26 +2096,26 @@
     <row r="102">
       <c r="A102" s="1" t="n"/>
       <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="C102" s="1" t="n"/>
       <c r="D102" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="n"/>
+      <c r="B103" s="1" t="inlineStr">
+        <is>
+          <t>2ND</t>
+        </is>
+      </c>
       <c r="C103" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>THREE</t>
         </is>
       </c>
       <c r="D103" s="1" t="inlineStr">
@@ -2156,7 +2132,7 @@
       <c r="B104" s="1" t="n"/>
       <c r="C104" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>FOUR</t>
         </is>
       </c>
       <c r="D104" s="1" t="inlineStr">
@@ -2165,45 +2141,37 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
       <c r="B105" s="1" t="n"/>
-      <c r="C105" s="1" t="n"/>
+      <c r="C105" s="1" t="inlineStr">
+        <is>
+          <t>FIVE</t>
+        </is>
+      </c>
       <c r="D105" s="1" t="inlineStr">
         <is>
+          <t>ACTION</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n"/>
+      <c r="B106" s="1" t="n"/>
+      <c r="C106" s="1" t="n"/>
+      <c r="D106" s="1" t="inlineStr">
+        <is>
           <t>ACTION - ATTACK</t>
         </is>
       </c>
-      <c r="E105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="inlineStr">
-        <is>
-          <t>HINTERLANDS</t>
-        </is>
-      </c>
-      <c r="B106" s="1" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="C106" s="1" t="inlineStr">
-        <is>
-          <t>TWO</t>
-        </is>
-      </c>
-      <c r="D106" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -2212,7 +2180,7 @@
       <c r="C107" s="1" t="n"/>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ATTACK - TREASURE</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2221,13 +2189,21 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n"/>
-      <c r="B108" s="1" t="n"/>
+      <c r="B108" s="1" t="inlineStr">
+        <is>
+          <t>1RC</t>
+        </is>
+      </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
-        </is>
-      </c>
-      <c r="D108" s="1" t="inlineStr"/>
+          <t>TWO</t>
+        </is>
+      </c>
+      <c r="D108" s="1" t="inlineStr">
+        <is>
+          <t>ACTION</t>
+        </is>
+      </c>
       <c r="E108" t="n">
         <v>1</v>
       </c>
@@ -2235,14 +2211,18 @@
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
-      <c r="C109" s="1" t="n"/>
+      <c r="C109" s="1" t="inlineStr">
+        <is>
+          <t>THREE</t>
+        </is>
+      </c>
       <c r="D109" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -2253,30 +2233,22 @@
           <t>FOUR</t>
         </is>
       </c>
-      <c r="D110" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+      <c r="D110" s="1" t="inlineStr"/>
       <c r="E110" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n"/>
       <c r="B111" s="1" t="n"/>
-      <c r="C111" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C111" s="1" t="n"/>
       <c r="D111" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -2297,12 +2269,16 @@
       <c r="B113" s="1" t="n"/>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr"/>
+          <t>FIVE</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr">
+        <is>
+          <t>ACTION</t>
+        </is>
+      </c>
       <c r="E113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114">
@@ -2311,23 +2287,27 @@
       <c r="C114" s="1" t="n"/>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n"/>
+      <c r="A115" s="1" t="inlineStr">
+        <is>
+          <t>DARK_AGES</t>
+        </is>
+      </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>TWO</t>
         </is>
       </c>
       <c r="D115" s="1" t="inlineStr">
@@ -2336,7 +2316,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116">
@@ -2344,7 +2324,7 @@
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>THREE</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
@@ -2353,37 +2333,33 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n"/>
       <c r="B117" s="1" t="n"/>
-      <c r="C117" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C117" s="1" t="n"/>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n"/>
       <c r="B118" s="1" t="n"/>
-      <c r="C118" s="1" t="n"/>
-      <c r="D118" s="1" t="inlineStr">
-        <is>
-          <t>ACTION - ATTACK</t>
-        </is>
-      </c>
+      <c r="C118" s="1" t="inlineStr">
+        <is>
+          <t>FOUR</t>
+        </is>
+      </c>
+      <c r="D118" s="1" t="inlineStr"/>
       <c r="E118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2392,28 +2368,20 @@
       <c r="C119" s="1" t="n"/>
       <c r="D119" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - TREASURE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
-        <is>
-          <t>1RC</t>
-        </is>
-      </c>
-      <c r="C120" s="1" t="inlineStr">
-        <is>
-          <t>TWO</t>
-        </is>
-      </c>
+      <c r="B120" s="1" t="n"/>
+      <c r="C120" s="1" t="n"/>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - ATTACK - LOOTER</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2423,14 +2391,10 @@
     <row r="121">
       <c r="A121" s="1" t="n"/>
       <c r="B121" s="1" t="n"/>
-      <c r="C121" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>ACTION - LOOTER</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2442,12 +2406,16 @@
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
-        </is>
-      </c>
-      <c r="D122" s="1" t="inlineStr"/>
+          <t>FIVE</t>
+        </is>
+      </c>
+      <c r="D122" s="1" t="inlineStr">
+        <is>
+          <t>ACTION</t>
+        </is>
+      </c>
       <c r="E122" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123">
@@ -2456,11 +2424,11 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
@@ -2469,7 +2437,7 @@
       <c r="C124" s="1" t="n"/>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>ACTION - ATTACK - LOOTER</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2479,37 +2447,37 @@
     <row r="125">
       <c r="A125" s="1" t="n"/>
       <c r="B125" s="1" t="n"/>
-      <c r="C125" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C125" s="1" t="n"/>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n"/>
       <c r="B126" s="1" t="n"/>
-      <c r="C126" s="1" t="n"/>
+      <c r="C126" s="1" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>DARK_AGES</t>
+          <t>GUILDS</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
@@ -2528,7 +2496,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128">
@@ -2536,7 +2504,7 @@
       <c r="B128" s="1" t="n"/>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>FOUR</t>
         </is>
       </c>
       <c r="D128" s="1" t="inlineStr">
@@ -2545,46 +2513,58 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="n"/>
-      <c r="C129" s="1" t="n"/>
+      <c r="C129" s="1" t="inlineStr">
+        <is>
+          <t>FIVE</t>
+        </is>
+      </c>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
       <c r="B130" s="1" t="n"/>
-      <c r="C130" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
-      <c r="D130" s="1" t="inlineStr"/>
+      <c r="C130" s="1" t="n"/>
+      <c r="D130" s="1" t="inlineStr">
+        <is>
+          <t>ACTION - ATTACK</t>
+        </is>
+      </c>
       <c r="E130" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="n"/>
-      <c r="C131" s="1" t="n"/>
+      <c r="B131" s="1" t="inlineStr">
+        <is>
+          <t>1RC</t>
+        </is>
+      </c>
+      <c r="C131" s="1" t="inlineStr">
+        <is>
+          <t>THREE</t>
+        </is>
+      </c>
       <c r="D131" s="1" t="inlineStr">
         <is>
           <t>ACTION</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -2593,7 +2573,7 @@
       <c r="C132" s="1" t="n"/>
       <c r="D132" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - LOOTER</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E132" t="n">
@@ -2603,10 +2583,14 @@
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n"/>
-      <c r="C133" s="1" t="n"/>
+      <c r="C133" s="1" t="inlineStr">
+        <is>
+          <t>FOUR</t>
+        </is>
+      </c>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LOOTER</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -2614,11 +2598,19 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="n"/>
+      <c r="A134" s="1" t="inlineStr">
+        <is>
+          <t>ADVENTURES</t>
+        </is>
+      </c>
+      <c r="B134" s="1" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>TWO</t>
         </is>
       </c>
       <c r="D134" s="1" t="inlineStr">
@@ -2627,7 +2619,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="135">
@@ -2636,20 +2628,24 @@
       <c r="C135" s="1" t="n"/>
       <c r="D135" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n"/>
       <c r="B136" s="1" t="n"/>
-      <c r="C136" s="1" t="n"/>
+      <c r="C136" s="1" t="inlineStr">
+        <is>
+          <t>THREE</t>
+        </is>
+      </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - LOOTER</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -2662,11 +2658,11 @@
       <c r="C137" s="1" t="n"/>
       <c r="D137" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ACTION - DURATION</t>
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138">
@@ -2674,7 +2670,7 @@
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>FOUR</t>
         </is>
       </c>
       <c r="D138" s="1" t="inlineStr">
@@ -2683,23 +2679,15 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="inlineStr">
-        <is>
-          <t>ADVENTURES</t>
-        </is>
-      </c>
-      <c r="B139" s="1" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+      <c r="A139" s="1" t="n"/>
+      <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>FIVE</t>
         </is>
       </c>
       <c r="D139" s="1" t="inlineStr">
@@ -2708,7 +2696,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140">
@@ -2717,7 +2705,7 @@
       <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -2727,18 +2715,14 @@
     <row r="141">
       <c r="A141" s="1" t="n"/>
       <c r="B141" s="1" t="n"/>
-      <c r="C141" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="C141" s="1" t="n"/>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - ATTACK - DURATION</t>
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142">
@@ -2747,28 +2731,24 @@
       <c r="C142" s="1" t="n"/>
       <c r="D142" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>ATTACK - TREASURE</t>
         </is>
       </c>
       <c r="E142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n"/>
       <c r="B143" s="1" t="n"/>
-      <c r="C143" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C143" s="1" t="n"/>
       <c r="D143" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>TREASURE</t>
         </is>
       </c>
       <c r="E143" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -2776,25 +2756,37 @@
       <c r="B144" s="1" t="n"/>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>OTHER</t>
         </is>
       </c>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>ACTION - DURATION</t>
         </is>
       </c>
       <c r="E144" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="n"/>
-      <c r="B145" s="1" t="n"/>
-      <c r="C145" s="1" t="n"/>
+      <c r="A145" s="1" t="inlineStr">
+        <is>
+          <t>CORNUCOPIA_GUILDS</t>
+        </is>
+      </c>
+      <c r="B145" s="1" t="inlineStr">
+        <is>
+          <t>2ND</t>
+        </is>
+      </c>
+      <c r="C145" s="1" t="inlineStr">
+        <is>
+          <t>TWO</t>
+        </is>
+      </c>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -2804,23 +2796,31 @@
     <row r="146">
       <c r="A146" s="1" t="n"/>
       <c r="B146" s="1" t="n"/>
-      <c r="C146" s="1" t="n"/>
+      <c r="C146" s="1" t="inlineStr">
+        <is>
+          <t>THREE</t>
+        </is>
+      </c>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E146" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n"/>
       <c r="B147" s="1" t="n"/>
-      <c r="C147" s="1" t="n"/>
+      <c r="C147" s="1" t="inlineStr">
+        <is>
+          <t>FOUR</t>
+        </is>
+      </c>
       <c r="D147" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - TREASURE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -2830,27 +2830,27 @@
     <row r="148">
       <c r="A148" s="1" t="n"/>
       <c r="B148" s="1" t="n"/>
-      <c r="C148" s="1" t="n"/>
+      <c r="C148" s="1" t="inlineStr">
+        <is>
+          <t>FIVE</t>
+        </is>
+      </c>
       <c r="D148" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>ACTION</t>
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n"/>
       <c r="B149" s="1" t="n"/>
-      <c r="C149" s="1" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
+      <c r="C149" s="1" t="n"/>
       <c r="D149" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>ACTION - ATTACK</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -4512,12 +4512,13 @@
   </sheetData>
   <mergeCells count="122">
     <mergeCell ref="C231:C239"/>
-    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="A115:A126"/>
     <mergeCell ref="B9:B13"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="C225:C226"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="C162:C165"/>
-    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="C134:C135"/>
     <mergeCell ref="C242:C243"/>
     <mergeCell ref="C87:C89"/>
     <mergeCell ref="C258:C260"/>
@@ -4525,59 +4526,55 @@
     <mergeCell ref="B36:B44"/>
     <mergeCell ref="C251:C254"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B139:B149"/>
+    <mergeCell ref="B127:B130"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="B192:B204"/>
     <mergeCell ref="B31:B35"/>
     <mergeCell ref="C69:C70"/>
     <mergeCell ref="C205:C207"/>
-    <mergeCell ref="B98:B100"/>
     <mergeCell ref="C192:C194"/>
-    <mergeCell ref="C111:C112"/>
     <mergeCell ref="C151:C154"/>
     <mergeCell ref="C22:C24"/>
-    <mergeCell ref="B120:B126"/>
     <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C98:C99"/>
     <mergeCell ref="C214:C218"/>
-    <mergeCell ref="A101:A105"/>
-    <mergeCell ref="C122:C124"/>
     <mergeCell ref="C200:C203"/>
-    <mergeCell ref="A139:A149"/>
     <mergeCell ref="C54:C55"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="B58:B63"/>
     <mergeCell ref="C65:C66"/>
+    <mergeCell ref="A94:A114"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C148:C149"/>
     <mergeCell ref="A84:A93"/>
     <mergeCell ref="B183:B191"/>
     <mergeCell ref="C248:C250"/>
     <mergeCell ref="A242:A254"/>
-    <mergeCell ref="C134:C137"/>
+    <mergeCell ref="C129:C130"/>
     <mergeCell ref="B150:B161"/>
-    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="B131:B133"/>
+    <mergeCell ref="C131:C132"/>
     <mergeCell ref="B205:B219"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C197:C199"/>
     <mergeCell ref="C40:C42"/>
-    <mergeCell ref="B106:B114"/>
-    <mergeCell ref="B101:B105"/>
     <mergeCell ref="C211:C213"/>
     <mergeCell ref="B242:B254"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="A106:A126"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C116:C117"/>
     <mergeCell ref="B220:B241"/>
-    <mergeCell ref="B94:B97"/>
+    <mergeCell ref="C110:C112"/>
     <mergeCell ref="A18:A35"/>
+    <mergeCell ref="C139:C143"/>
     <mergeCell ref="C113:C114"/>
+    <mergeCell ref="B103:B107"/>
     <mergeCell ref="C50:C51"/>
     <mergeCell ref="B255:B261"/>
     <mergeCell ref="C255:C256"/>
     <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C118:C121"/>
     <mergeCell ref="C183:C184"/>
     <mergeCell ref="A192:A204"/>
     <mergeCell ref="B64:B70"/>
@@ -4585,31 +4582,31 @@
     <mergeCell ref="C36:C37"/>
     <mergeCell ref="B91:B93"/>
     <mergeCell ref="C45:C47"/>
+    <mergeCell ref="A127:A133"/>
     <mergeCell ref="C166:C170"/>
     <mergeCell ref="C240:C241"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B94:B102"/>
     <mergeCell ref="C48:C49"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C106:C107"/>
+    <mergeCell ref="C122:C125"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="A255:A261"/>
     <mergeCell ref="A64:A83"/>
     <mergeCell ref="B18:B26"/>
-    <mergeCell ref="A94:A100"/>
+    <mergeCell ref="B134:B144"/>
     <mergeCell ref="B77:B83"/>
+    <mergeCell ref="A145:A149"/>
     <mergeCell ref="C77:C78"/>
     <mergeCell ref="C195:C196"/>
     <mergeCell ref="A36:A57"/>
     <mergeCell ref="B162:B182"/>
     <mergeCell ref="A58:A63"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="B127:B138"/>
+    <mergeCell ref="C105:C107"/>
     <mergeCell ref="A183:A191"/>
-    <mergeCell ref="C104:C105"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="C187:C188"/>
-    <mergeCell ref="A127:A138"/>
     <mergeCell ref="A150:A161"/>
     <mergeCell ref="B84:B90"/>
     <mergeCell ref="B14:B17"/>
@@ -4617,21 +4614,24 @@
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="A205:A219"/>
     <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B108:B114"/>
+    <mergeCell ref="C99:C100"/>
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="C189:C191"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="B115:B126"/>
     <mergeCell ref="B45:B51"/>
     <mergeCell ref="C67:C68"/>
     <mergeCell ref="C74:C76"/>
     <mergeCell ref="C220:C224"/>
     <mergeCell ref="A162:A182"/>
-    <mergeCell ref="C130:C133"/>
     <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C125:C126"/>
     <mergeCell ref="C96:C97"/>
     <mergeCell ref="A220:A241"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="B145:B149"/>
+    <mergeCell ref="B2:B8"/>
     <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C108:C109"/>
     <mergeCell ref="C80:C82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/config/kingdom_regular.xlsx
+++ b/config/kingdom_regular.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -484,22 +484,22 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>DOMINION</t>
+          <t>Dominion</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -511,12 +511,12 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -525,58 +525,74 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="n"/>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr"/>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-      <c r="D6" s="1" t="inlineStr">
-        <is>
-          <t>ACTION - ATTACK</t>
-        </is>
-      </c>
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
@@ -585,62 +601,62 @@
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>Removed</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="n"/>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -649,28 +665,32 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="n"/>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
+      <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -681,34 +701,30 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>1RC</t>
+          <t>Update Pack</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D14" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -717,28 +733,40 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="n"/>
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="D16" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -748,22 +776,22 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>INTRIGUE</t>
+          <t>Intrigue</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -772,28 +800,40 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="n"/>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Two</t>
+        </is>
+      </c>
       <c r="D20" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -802,107 +842,135 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D21" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>Action - Attack</t>
+        </is>
+      </c>
       <c r="E22" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D23" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D24" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="n"/>
-      <c r="C26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D26" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+          <t>Five</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" t="n">
         <v>1</v>
       </c>
@@ -910,31 +978,23 @@
     <row r="28">
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -943,11 +1003,19 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D30" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -956,19 +1024,11 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>1RC</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t>TWO</t>
-        </is>
-      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -977,49 +1037,53 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
       <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="n"/>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D34" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1032,7 +1096,7 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1042,22 +1106,22 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>SEASIDE</t>
+          <t>Seaside</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1070,7 +1134,7 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1079,58 +1143,74 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C39" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D39" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
       <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C41" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D41" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1139,11 +1219,19 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="1" t="n"/>
+      <c r="B42" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C42" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D42" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1153,18 +1241,14 @@
     <row r="43">
       <c r="A43" s="1" t="n"/>
       <c r="B43" s="1" t="n"/>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1173,32 +1257,32 @@
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Duration - Treasure</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n"/>
       <c r="B45" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D45" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -1207,7 +1291,7 @@
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1220,7 +1304,7 @@
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="inlineStr">
         <is>
-          <t>DURATION - TREASURE</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1229,15 +1313,19 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="n"/>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D48" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1250,7 +1338,7 @@
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1259,19 +1347,23 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="n"/>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D50" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1280,28 +1372,28 @@
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n"/>
       <c r="B52" s="1" t="inlineStr">
         <is>
-          <t>1RC</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D52" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1311,31 +1403,31 @@
     <row r="53">
       <c r="A53" s="1" t="n"/>
       <c r="B53" s="1" t="n"/>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="n"/>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D54" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1348,28 +1440,32 @@
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="n"/>
+      <c r="B56" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D56" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
@@ -1378,7 +1474,7 @@
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -1388,22 +1484,22 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>ALCHEMY</t>
+          <t>Alchemy</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C58" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D58" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -1415,12 +1511,12 @@
       <c r="B59" s="1" t="n"/>
       <c r="C59" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D59" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -1432,7 +1528,7 @@
       <c r="B60" s="1" t="n"/>
       <c r="C60" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D60" s="1" t="inlineStr"/>
@@ -1446,7 +1542,7 @@
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E61" t="n">
@@ -1459,7 +1555,7 @@
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E62" t="n">
@@ -1472,7 +1568,7 @@
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E63" t="n">
@@ -1482,22 +1578,22 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>PROSPERITY</t>
+          <t>Prosperity</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C64" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D64" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E64" t="n">
@@ -1506,19 +1602,23 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="n"/>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D65" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -1527,7 +1627,7 @@
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E66" t="n">
@@ -1536,79 +1636,95 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="n"/>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C67" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D67" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="n"/>
-      <c r="C68" s="1" t="n"/>
+      <c r="B68" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C68" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D68" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
       <c r="B69" s="1" t="n"/>
-      <c r="C69" s="1" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
+      <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="n"/>
-      <c r="C70" s="1" t="n"/>
+      <c r="B70" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C70" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D70" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
       <c r="B71" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>Update Pack</t>
         </is>
       </c>
       <c r="C71" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D71" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E71" t="n">
@@ -1618,44 +1734,44 @@
     <row r="72">
       <c r="A72" s="1" t="n"/>
       <c r="B72" s="1" t="n"/>
-      <c r="C72" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="n"/>
-      <c r="C73" s="1" t="n"/>
+      <c r="B73" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C73" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D73" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
       <c r="B74" s="1" t="n"/>
-      <c r="C74" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E74" t="n">
@@ -1664,11 +1780,19 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="n"/>
-      <c r="C75" s="1" t="n"/>
+      <c r="B75" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C75" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D75" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E75" t="n">
@@ -1681,41 +1805,41 @@
       <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="inlineStr">
-        <is>
-          <t>1RC</t>
-        </is>
-      </c>
-      <c r="C77" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="B77" s="1" t="n"/>
+      <c r="C77" s="1" t="n"/>
       <c r="D77" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="n"/>
-      <c r="C78" s="1" t="n"/>
+      <c r="B78" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C78" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D78" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E78" t="n">
@@ -1725,14 +1849,10 @@
     <row r="79">
       <c r="A79" s="1" t="n"/>
       <c r="B79" s="1" t="n"/>
-      <c r="C79" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C79" s="1" t="n"/>
       <c r="D79" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E79" t="n">
@@ -1742,31 +1862,35 @@
     <row r="80">
       <c r="A80" s="1" t="n"/>
       <c r="B80" s="1" t="n"/>
-      <c r="C80" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C80" s="1" t="n"/>
       <c r="D80" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="n"/>
-      <c r="C81" s="1" t="n"/>
+      <c r="B81" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C81" s="1" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
       <c r="D81" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82">
@@ -1775,24 +1899,28 @@
       <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="n"/>
+      <c r="B83" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C83" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D83" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E83" t="n">
@@ -1802,22 +1930,22 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>CORNUCOPIA</t>
+          <t>Cornucopia</t>
         </is>
       </c>
       <c r="B84" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C84" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D84" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -1829,12 +1957,12 @@
       <c r="B85" s="1" t="n"/>
       <c r="C85" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D85" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E85" t="n">
@@ -1843,15 +1971,19 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="n"/>
+      <c r="B86" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C86" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D86" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E86" t="n">
@@ -1860,15 +1992,19 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="n"/>
+      <c r="B87" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C87" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D87" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -1877,24 +2013,40 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="n"/>
-      <c r="C88" s="1" t="n"/>
+      <c r="B88" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C88" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D88" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="n"/>
-      <c r="C89" s="1" t="n"/>
+      <c r="B89" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C89" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D89" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E89" t="n">
@@ -1904,31 +2056,23 @@
     <row r="90">
       <c r="A90" s="1" t="n"/>
       <c r="B90" s="1" t="n"/>
-      <c r="C90" s="1" t="inlineStr">
-        <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="D90" s="1" t="inlineStr"/>
+      <c r="C90" s="1" t="n"/>
+      <c r="D90" s="1" t="inlineStr">
+        <is>
+          <t>Action - Attack</t>
+        </is>
+      </c>
       <c r="E90" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="inlineStr">
-        <is>
-          <t>1RC</t>
-        </is>
-      </c>
-      <c r="C91" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="B91" s="1" t="n"/>
+      <c r="C91" s="1" t="n"/>
       <c r="D91" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -1937,34 +2081,38 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="n"/>
+      <c r="B92" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C92" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D92" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="n"/>
+      <c r="B93" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C93" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
-        </is>
-      </c>
-      <c r="D93" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D93" s="1" t="inlineStr"/>
       <c r="E93" t="n">
         <v>1</v>
       </c>
@@ -1972,22 +2120,22 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>HINTERLANDS</t>
+          <t>Hinterlands</t>
         </is>
       </c>
       <c r="B94" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C94" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D94" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -2000,7 +2148,7 @@
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E95" t="n">
@@ -2009,41 +2157,49 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="n"/>
+      <c r="B96" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C96" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
-        </is>
-      </c>
-      <c r="D96" s="1" t="inlineStr"/>
+          <t>Two</t>
+        </is>
+      </c>
+      <c r="D96" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
       <c r="E96" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="n"/>
-      <c r="C97" s="1" t="n"/>
-      <c r="D97" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+      <c r="B97" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C97" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
+      <c r="D97" s="1" t="inlineStr"/>
       <c r="E97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
       <c r="B98" s="1" t="n"/>
-      <c r="C98" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C98" s="1" t="n"/>
       <c r="D98" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E98" t="n">
@@ -2052,28 +2208,40 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
-      <c r="B99" s="1" t="n"/>
+      <c r="B99" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C99" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D99" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="n"/>
-      <c r="C100" s="1" t="n"/>
+      <c r="B100" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
+      <c r="C100" s="1" t="inlineStr">
+        <is>
+          <t>Three</t>
+        </is>
+      </c>
       <c r="D100" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -2082,45 +2250,49 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="n"/>
+      <c r="B101" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C101" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
-        </is>
-      </c>
-      <c r="D101" s="1" t="inlineStr"/>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="D101" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
       <c r="E101" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="n"/>
-      <c r="C102" s="1" t="n"/>
-      <c r="D102" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+      <c r="B102" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
+      <c r="C102" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
+      <c r="D102" s="1" t="inlineStr"/>
       <c r="E102" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="inlineStr">
-        <is>
-          <t>2ND</t>
-        </is>
-      </c>
-      <c r="C103" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="B103" s="1" t="n"/>
+      <c r="C103" s="1" t="n"/>
       <c r="D103" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E103" t="n">
@@ -2130,48 +2302,56 @@
     <row r="104">
       <c r="A104" s="1" t="n"/>
       <c r="B104" s="1" t="n"/>
-      <c r="C104" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C104" s="1" t="n"/>
       <c r="D104" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="n"/>
+      <c r="B105" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C105" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D105" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="n"/>
-      <c r="C106" s="1" t="n"/>
+      <c r="B106" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C106" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D106" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
@@ -2180,7 +2360,7 @@
       <c r="C107" s="1" t="n"/>
       <c r="D107" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - TREASURE</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E107" t="n">
@@ -2191,51 +2371,55 @@
       <c r="A108" s="1" t="n"/>
       <c r="B108" s="1" t="inlineStr">
         <is>
-          <t>1RC</t>
+          <t>Removed</t>
         </is>
       </c>
       <c r="C108" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D108" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n"/>
       <c r="B109" s="1" t="n"/>
-      <c r="C109" s="1" t="inlineStr">
-        <is>
-          <t>THREE</t>
-        </is>
-      </c>
+      <c r="C109" s="1" t="n"/>
       <c r="D109" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="n"/>
+      <c r="B110" s="1" t="inlineStr">
+        <is>
+          <t>Update Pack</t>
+        </is>
+      </c>
       <c r="C110" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
-        </is>
-      </c>
-      <c r="D110" s="1" t="inlineStr"/>
+          <t>Five</t>
+        </is>
+      </c>
+      <c r="D110" s="1" t="inlineStr">
+        <is>
+          <t>Action</t>
+        </is>
+      </c>
       <c r="E110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111">
@@ -2244,11 +2428,11 @@
       <c r="C111" s="1" t="n"/>
       <c r="D111" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112">
@@ -2257,7 +2441,7 @@
       <c r="C112" s="1" t="n"/>
       <c r="D112" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Attack - Treasure</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -2266,19 +2450,19 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="n"/>
+      <c r="B113" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="C113" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
-        </is>
-      </c>
-      <c r="D113" s="1" t="inlineStr">
-        <is>
-          <t>ACTION</t>
-        </is>
-      </c>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D113" s="1" t="inlineStr"/>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -2287,32 +2471,32 @@
       <c r="C114" s="1" t="n"/>
       <c r="D114" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>DARK_AGES</t>
+          <t>Dark Ages</t>
         </is>
       </c>
       <c r="B115" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C115" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D115" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E115" t="n">
@@ -2324,12 +2508,12 @@
       <c r="B116" s="1" t="n"/>
       <c r="C116" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D116" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -2342,7 +2526,7 @@
       <c r="C117" s="1" t="n"/>
       <c r="D117" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E117" t="n">
@@ -2354,7 +2538,7 @@
       <c r="B118" s="1" t="n"/>
       <c r="C118" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D118" s="1" t="inlineStr"/>
@@ -2368,7 +2552,7 @@
       <c r="C119" s="1" t="n"/>
       <c r="D119" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E119" t="n">
@@ -2381,7 +2565,7 @@
       <c r="C120" s="1" t="n"/>
       <c r="D120" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - LOOTER</t>
+          <t>Action - Attack - Looter</t>
         </is>
       </c>
       <c r="E120" t="n">
@@ -2394,7 +2578,7 @@
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LOOTER</t>
+          <t>Action - Looter</t>
         </is>
       </c>
       <c r="E121" t="n">
@@ -2406,12 +2590,12 @@
       <c r="B122" s="1" t="n"/>
       <c r="C122" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D122" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E122" t="n">
@@ -2424,7 +2608,7 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E123" t="n">
@@ -2437,7 +2621,7 @@
       <c r="C124" s="1" t="n"/>
       <c r="D124" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - LOOTER</t>
+          <t>Action - Attack - Looter</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -2450,7 +2634,7 @@
       <c r="C125" s="1" t="n"/>
       <c r="D125" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E125" t="n">
@@ -2462,12 +2646,12 @@
       <c r="B126" s="1" t="n"/>
       <c r="C126" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D126" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E126" t="n">
@@ -2477,22 +2661,22 @@
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>GUILDS</t>
+          <t>Guilds</t>
         </is>
       </c>
       <c r="B127" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C127" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D127" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E127" t="n">
@@ -2501,66 +2685,74 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="n"/>
+      <c r="B128" s="1" t="inlineStr">
+        <is>
+          <t>Removed</t>
+        </is>
+      </c>
       <c r="C128" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D128" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n"/>
       <c r="B129" s="1" t="n"/>
-      <c r="C129" s="1" t="inlineStr">
-        <is>
-          <t>FIVE</t>
-        </is>
-      </c>
+      <c r="C129" s="1" t="n"/>
       <c r="D129" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="n"/>
-      <c r="C130" s="1" t="n"/>
+      <c r="B130" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C130" s="1" t="inlineStr">
+        <is>
+          <t>Four</t>
+        </is>
+      </c>
       <c r="D130" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n"/>
       <c r="B131" s="1" t="inlineStr">
         <is>
-          <t>1RC</t>
+          <t>Removed</t>
         </is>
       </c>
       <c r="C131" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D131" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E131" t="n">
@@ -2569,28 +2761,32 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="n"/>
-      <c r="C132" s="1" t="n"/>
+      <c r="B132" s="1" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="C132" s="1" t="inlineStr">
+        <is>
+          <t>Five</t>
+        </is>
+      </c>
       <c r="D132" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n"/>
       <c r="B133" s="1" t="n"/>
-      <c r="C133" s="1" t="inlineStr">
-        <is>
-          <t>FOUR</t>
-        </is>
-      </c>
+      <c r="C133" s="1" t="n"/>
       <c r="D133" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E133" t="n">
@@ -2600,22 +2796,22 @@
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>ADVENTURES</t>
+          <t>Adventures</t>
         </is>
       </c>
       <c r="B134" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C134" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D134" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -2628,7 +2824,7 @@
       <c r="C135" s="1" t="n"/>
       <c r="D135" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E135" t="n">
@@ -2640,12 +2836,12 @@
       <c r="B136" s="1" t="n"/>
       <c r="C136" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D136" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E136" t="n">
@@ -2658,7 +2854,7 @@
       <c r="C137" s="1" t="n"/>
       <c r="D137" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -2670,12 +2866,12 @@
       <c r="B138" s="1" t="n"/>
       <c r="C138" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D138" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -2687,12 +2883,12 @@
       <c r="B139" s="1" t="n"/>
       <c r="C139" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D139" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E139" t="n">
@@ -2705,7 +2901,7 @@
       <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E140" t="n">
@@ -2718,7 +2914,7 @@
       <c r="C141" s="1" t="n"/>
       <c r="D141" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E141" t="n">
@@ -2731,7 +2927,7 @@
       <c r="C142" s="1" t="n"/>
       <c r="D142" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - TREASURE</t>
+          <t>Attack - Treasure</t>
         </is>
       </c>
       <c r="E142" t="n">
@@ -2744,7 +2940,7 @@
       <c r="C143" s="1" t="n"/>
       <c r="D143" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -2756,12 +2952,12 @@
       <c r="B144" s="1" t="n"/>
       <c r="C144" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D144" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E144" t="n">
@@ -2771,22 +2967,22 @@
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>CORNUCOPIA_GUILDS</t>
+          <t>Cornucopia Guilds</t>
         </is>
       </c>
       <c r="B145" s="1" t="inlineStr">
         <is>
-          <t>2ND</t>
+          <t>Update Pack</t>
         </is>
       </c>
       <c r="C145" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D145" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E145" t="n">
@@ -2798,12 +2994,12 @@
       <c r="B146" s="1" t="n"/>
       <c r="C146" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D146" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -2815,12 +3011,12 @@
       <c r="B147" s="1" t="n"/>
       <c r="C147" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D147" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -2832,12 +3028,12 @@
       <c r="B148" s="1" t="n"/>
       <c r="C148" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D148" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -2850,7 +3046,7 @@
       <c r="C149" s="1" t="n"/>
       <c r="D149" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E149" t="n">
@@ -2860,22 +3056,22 @@
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>EMPIRES</t>
+          <t>Empires</t>
         </is>
       </c>
       <c r="B150" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C150" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D150" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E150" t="n">
@@ -2887,7 +3083,7 @@
       <c r="B151" s="1" t="n"/>
       <c r="C151" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D151" s="1" t="inlineStr"/>
@@ -2901,7 +3097,7 @@
       <c r="C152" s="1" t="n"/>
       <c r="D152" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E152" t="n">
@@ -2914,7 +3110,7 @@
       <c r="C153" s="1" t="n"/>
       <c r="D153" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E153" t="n">
@@ -2927,7 +3123,7 @@
       <c r="C154" s="1" t="n"/>
       <c r="D154" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E154" t="n">
@@ -2939,12 +3135,12 @@
       <c r="B155" s="1" t="n"/>
       <c r="C155" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D155" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E155" t="n">
@@ -2956,12 +3152,12 @@
       <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D156" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E156" t="n">
@@ -2974,7 +3170,7 @@
       <c r="C157" s="1" t="n"/>
       <c r="D157" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E157" t="n">
@@ -2987,7 +3183,7 @@
       <c r="C158" s="1" t="n"/>
       <c r="D158" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E158" t="n">
@@ -3000,7 +3196,7 @@
       <c r="C159" s="1" t="n"/>
       <c r="D159" s="1" t="inlineStr">
         <is>
-          <t>ACTION - TREASURE</t>
+          <t>Action - Treasure</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -3013,7 +3209,7 @@
       <c r="C160" s="1" t="n"/>
       <c r="D160" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E160" t="n">
@@ -3025,12 +3221,12 @@
       <c r="B161" s="1" t="n"/>
       <c r="C161" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D161" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E161" t="n">
@@ -3040,17 +3236,17 @@
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>NOCTURNE</t>
+          <t>Nocturne</t>
         </is>
       </c>
       <c r="B162" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C162" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D162" s="1" t="inlineStr"/>
@@ -3064,7 +3260,7 @@
       <c r="C163" s="1" t="n"/>
       <c r="D163" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E163" t="n">
@@ -3077,7 +3273,7 @@
       <c r="C164" s="1" t="n"/>
       <c r="D164" s="1" t="inlineStr">
         <is>
-          <t>ACTION - FATE</t>
+          <t>Action - Fate</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -3090,7 +3286,7 @@
       <c r="C165" s="1" t="n"/>
       <c r="D165" s="1" t="inlineStr">
         <is>
-          <t>DURATION</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="E165" t="n">
@@ -3102,7 +3298,7 @@
       <c r="B166" s="1" t="n"/>
       <c r="C166" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D166" s="1" t="inlineStr"/>
@@ -3116,7 +3312,7 @@
       <c r="C167" s="1" t="n"/>
       <c r="D167" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DOOM</t>
+          <t>Action - Doom</t>
         </is>
       </c>
       <c r="E167" t="n">
@@ -3129,7 +3325,7 @@
       <c r="C168" s="1" t="n"/>
       <c r="D168" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E168" t="n">
@@ -3142,7 +3338,7 @@
       <c r="C169" s="1" t="n"/>
       <c r="D169" s="1" t="inlineStr">
         <is>
-          <t>ACTION - FATE</t>
+          <t>Action - Fate</t>
         </is>
       </c>
       <c r="E169" t="n">
@@ -3155,7 +3351,7 @@
       <c r="C170" s="1" t="n"/>
       <c r="D170" s="1" t="inlineStr">
         <is>
-          <t>DURATION</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="E170" t="n">
@@ -3167,7 +3363,7 @@
       <c r="B171" s="1" t="n"/>
       <c r="C171" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D171" s="1" t="inlineStr"/>
@@ -3181,7 +3377,7 @@
       <c r="C172" s="1" t="n"/>
       <c r="D172" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -3194,7 +3390,7 @@
       <c r="C173" s="1" t="n"/>
       <c r="D173" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DOOM</t>
+          <t>Action - Attack - Doom</t>
         </is>
       </c>
       <c r="E173" t="n">
@@ -3207,7 +3403,7 @@
       <c r="C174" s="1" t="n"/>
       <c r="D174" s="1" t="inlineStr">
         <is>
-          <t>ACTION - FATE</t>
+          <t>Action - Fate</t>
         </is>
       </c>
       <c r="E174" t="n">
@@ -3219,12 +3415,12 @@
       <c r="B175" s="1" t="n"/>
       <c r="C175" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D175" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -3237,7 +3433,7 @@
       <c r="C176" s="1" t="n"/>
       <c r="D176" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DOOM</t>
+          <t>Action - Attack - Doom</t>
         </is>
       </c>
       <c r="E176" t="n">
@@ -3250,7 +3446,7 @@
       <c r="C177" s="1" t="n"/>
       <c r="D177" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DOOM</t>
+          <t>Action - Doom</t>
         </is>
       </c>
       <c r="E177" t="n">
@@ -3263,7 +3459,7 @@
       <c r="C178" s="1" t="n"/>
       <c r="D178" s="1" t="inlineStr">
         <is>
-          <t>ACTION - FATE</t>
+          <t>Action - Fate</t>
         </is>
       </c>
       <c r="E178" t="n">
@@ -3276,7 +3472,7 @@
       <c r="C179" s="1" t="n"/>
       <c r="D179" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - DOOM</t>
+          <t>Attack - Doom</t>
         </is>
       </c>
       <c r="E179" t="n">
@@ -3289,7 +3485,7 @@
       <c r="C180" s="1" t="n"/>
       <c r="D180" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - FATE - TREASURE</t>
+          <t>Attack - Fate - Treasure</t>
         </is>
       </c>
       <c r="E180" t="n">
@@ -3302,7 +3498,7 @@
       <c r="C181" s="1" t="n"/>
       <c r="D181" s="1" t="inlineStr">
         <is>
-          <t>DURATION</t>
+          <t>Duration</t>
         </is>
       </c>
       <c r="E181" t="n">
@@ -3314,12 +3510,12 @@
       <c r="B182" s="1" t="n"/>
       <c r="C182" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D182" s="1" t="inlineStr">
         <is>
-          <t>ATTACK - DURATION</t>
+          <t>Attack - Duration</t>
         </is>
       </c>
       <c r="E182" t="n">
@@ -3329,22 +3525,22 @@
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>RENAISSANCE</t>
+          <t>Renaissance</t>
         </is>
       </c>
       <c r="B183" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C183" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D183" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -3357,7 +3553,7 @@
       <c r="C184" s="1" t="n"/>
       <c r="D184" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E184" t="n">
@@ -3369,12 +3565,12 @@
       <c r="B185" s="1" t="n"/>
       <c r="C185" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D185" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -3387,7 +3583,7 @@
       <c r="C186" s="1" t="n"/>
       <c r="D186" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E186" t="n">
@@ -3399,12 +3595,12 @@
       <c r="B187" s="1" t="n"/>
       <c r="C187" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D187" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E187" t="n">
@@ -3417,7 +3613,7 @@
       <c r="C188" s="1" t="n"/>
       <c r="D188" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E188" t="n">
@@ -3429,12 +3625,12 @@
       <c r="B189" s="1" t="n"/>
       <c r="C189" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D189" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E189" t="n">
@@ -3447,7 +3643,7 @@
       <c r="C190" s="1" t="n"/>
       <c r="D190" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E190" t="n">
@@ -3460,7 +3656,7 @@
       <c r="C191" s="1" t="n"/>
       <c r="D191" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E191" t="n">
@@ -3470,22 +3666,22 @@
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>MENAGERIE</t>
+          <t>Menagerie</t>
         </is>
       </c>
       <c r="B192" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C192" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D192" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E192" t="n">
@@ -3498,7 +3694,7 @@
       <c r="C193" s="1" t="n"/>
       <c r="D193" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E193" t="n">
@@ -3511,7 +3707,7 @@
       <c r="C194" s="1" t="n"/>
       <c r="D194" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E194" t="n">
@@ -3523,12 +3719,12 @@
       <c r="B195" s="1" t="n"/>
       <c r="C195" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D195" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E195" t="n">
@@ -3541,7 +3737,7 @@
       <c r="C196" s="1" t="n"/>
       <c r="D196" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E196" t="n">
@@ -3553,12 +3749,12 @@
       <c r="B197" s="1" t="n"/>
       <c r="C197" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D197" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -3571,7 +3767,7 @@
       <c r="C198" s="1" t="n"/>
       <c r="D198" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -3584,7 +3780,7 @@
       <c r="C199" s="1" t="n"/>
       <c r="D199" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E199" t="n">
@@ -3596,12 +3792,12 @@
       <c r="B200" s="1" t="n"/>
       <c r="C200" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D200" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E200" t="n">
@@ -3614,7 +3810,7 @@
       <c r="C201" s="1" t="n"/>
       <c r="D201" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -3627,7 +3823,7 @@
       <c r="C202" s="1" t="n"/>
       <c r="D202" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -3640,7 +3836,7 @@
       <c r="C203" s="1" t="n"/>
       <c r="D203" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E203" t="n">
@@ -3652,12 +3848,12 @@
       <c r="B204" s="1" t="n"/>
       <c r="C204" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D204" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -3667,22 +3863,22 @@
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>ALLIES</t>
+          <t>Allies</t>
         </is>
       </c>
       <c r="B205" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C205" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D205" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E205" t="n">
@@ -3695,7 +3891,7 @@
       <c r="C206" s="1" t="n"/>
       <c r="D206" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LIAISON</t>
+          <t>Action - Liaison</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -3708,7 +3904,7 @@
       <c r="C207" s="1" t="n"/>
       <c r="D207" s="1" t="inlineStr">
         <is>
-          <t>LIAISON - TREASURE</t>
+          <t>Liaison - Treasure</t>
         </is>
       </c>
       <c r="E207" t="n">
@@ -3720,12 +3916,12 @@
       <c r="B208" s="1" t="n"/>
       <c r="C208" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D208" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -3738,7 +3934,7 @@
       <c r="C209" s="1" t="n"/>
       <c r="D209" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION - LIAISON</t>
+          <t>Action - Duration - Liaison</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -3751,7 +3947,7 @@
       <c r="C210" s="1" t="n"/>
       <c r="D210" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LIAISON</t>
+          <t>Action - Liaison</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -3763,12 +3959,12 @@
       <c r="B211" s="1" t="n"/>
       <c r="C211" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D211" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E211" t="n">
@@ -3781,7 +3977,7 @@
       <c r="C212" s="1" t="n"/>
       <c r="D212" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E212" t="n">
@@ -3794,7 +3990,7 @@
       <c r="C213" s="1" t="n"/>
       <c r="D213" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LIAISON</t>
+          <t>Action - Liaison</t>
         </is>
       </c>
       <c r="E213" t="n">
@@ -3806,12 +4002,12 @@
       <c r="B214" s="1" t="n"/>
       <c r="C214" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D214" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E214" t="n">
@@ -3824,7 +4020,7 @@
       <c r="C215" s="1" t="n"/>
       <c r="D215" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -3837,7 +4033,7 @@
       <c r="C216" s="1" t="n"/>
       <c r="D216" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -3850,7 +4046,7 @@
       <c r="C217" s="1" t="n"/>
       <c r="D217" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LIAISON</t>
+          <t>Action - Liaison</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -3863,7 +4059,7 @@
       <c r="C218" s="1" t="n"/>
       <c r="D218" s="1" t="inlineStr">
         <is>
-          <t>DURATION - LIAISON - TREASURE</t>
+          <t>Duration - Liaison - Treasure</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -3875,12 +4071,12 @@
       <c r="B219" s="1" t="n"/>
       <c r="C219" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D219" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -3890,22 +4086,22 @@
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>PLUNDER</t>
+          <t>Plunder</t>
         </is>
       </c>
       <c r="B220" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C220" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D220" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -3918,7 +4114,7 @@
       <c r="C221" s="1" t="n"/>
       <c r="D221" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -3931,7 +4127,7 @@
       <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION - LOOT</t>
+          <t>Action - Duration - Loot</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -3944,7 +4140,7 @@
       <c r="C223" s="1" t="n"/>
       <c r="D223" s="1" t="inlineStr">
         <is>
-          <t>DURATION - TREASURE</t>
+          <t>Duration - Treasure</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -3957,7 +4153,7 @@
       <c r="C224" s="1" t="n"/>
       <c r="D224" s="1" t="inlineStr">
         <is>
-          <t>LOOT - TREASURE</t>
+          <t>Loot - Treasure</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -3969,12 +4165,12 @@
       <c r="B225" s="1" t="n"/>
       <c r="C225" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D225" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -3987,7 +4183,7 @@
       <c r="C226" s="1" t="n"/>
       <c r="D226" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -3999,12 +4195,12 @@
       <c r="B227" s="1" t="n"/>
       <c r="C227" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D227" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -4017,7 +4213,7 @@
       <c r="C228" s="1" t="n"/>
       <c r="D228" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -4030,7 +4226,7 @@
       <c r="C229" s="1" t="n"/>
       <c r="D229" s="1" t="inlineStr">
         <is>
-          <t>DURATION - TREASURE</t>
+          <t>Duration - Treasure</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -4043,7 +4239,7 @@
       <c r="C230" s="1" t="n"/>
       <c r="D230" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -4055,12 +4251,12 @@
       <c r="B231" s="1" t="n"/>
       <c r="C231" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D231" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -4073,7 +4269,7 @@
       <c r="C232" s="1" t="n"/>
       <c r="D232" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -4086,7 +4282,7 @@
       <c r="C233" s="1" t="n"/>
       <c r="D233" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -4099,7 +4295,7 @@
       <c r="C234" s="1" t="n"/>
       <c r="D234" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION - LOOT</t>
+          <t>Action - Attack - Duration - Loot</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -4112,7 +4308,7 @@
       <c r="C235" s="1" t="n"/>
       <c r="D235" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -4125,7 +4321,7 @@
       <c r="C236" s="1" t="n"/>
       <c r="D236" s="1" t="inlineStr">
         <is>
-          <t>ACTION - LOOT</t>
+          <t>Action - Loot</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -4138,7 +4334,7 @@
       <c r="C237" s="1" t="n"/>
       <c r="D237" s="1" t="inlineStr">
         <is>
-          <t>DURATION - TREASURE</t>
+          <t>Duration - Treasure</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -4151,7 +4347,7 @@
       <c r="C238" s="1" t="n"/>
       <c r="D238" s="1" t="inlineStr">
         <is>
-          <t>LOOT - TREASURE</t>
+          <t>Loot - Treasure</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -4164,7 +4360,7 @@
       <c r="C239" s="1" t="n"/>
       <c r="D239" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -4176,12 +4372,12 @@
       <c r="B240" s="1" t="n"/>
       <c r="C240" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D240" s="1" t="inlineStr">
         <is>
-          <t>LOOT - TREASURE</t>
+          <t>Loot - Treasure</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -4194,7 +4390,7 @@
       <c r="C241" s="1" t="n"/>
       <c r="D241" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -4204,22 +4400,22 @@
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>RISING_SUN</t>
+          <t>Rising Sun</t>
         </is>
       </c>
       <c r="B242" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C242" s="1" t="inlineStr">
         <is>
-          <t>TWO</t>
+          <t>Two</t>
         </is>
       </c>
       <c r="D242" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -4232,7 +4428,7 @@
       <c r="C243" s="1" t="n"/>
       <c r="D243" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -4244,12 +4440,12 @@
       <c r="B244" s="1" t="n"/>
       <c r="C244" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D244" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -4261,12 +4457,12 @@
       <c r="B245" s="1" t="n"/>
       <c r="C245" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D245" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -4279,7 +4475,7 @@
       <c r="C246" s="1" t="n"/>
       <c r="D246" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK</t>
+          <t>Action - Attack</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -4292,7 +4488,7 @@
       <c r="C247" s="1" t="n"/>
       <c r="D247" s="1" t="inlineStr">
         <is>
-          <t>ACTION - OMEN</t>
+          <t>Action - Omen</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -4304,12 +4500,12 @@
       <c r="B248" s="1" t="n"/>
       <c r="C248" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D248" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -4322,7 +4518,7 @@
       <c r="C249" s="1" t="n"/>
       <c r="D249" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - OMEN</t>
+          <t>Action - Attack - Omen</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -4335,7 +4531,7 @@
       <c r="C250" s="1" t="n"/>
       <c r="D250" s="1" t="inlineStr">
         <is>
-          <t>ACTION - OMEN</t>
+          <t>Action - Omen</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -4347,12 +4543,12 @@
       <c r="B251" s="1" t="n"/>
       <c r="C251" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D251" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -4365,7 +4561,7 @@
       <c r="C252" s="1" t="n"/>
       <c r="D252" s="1" t="inlineStr">
         <is>
-          <t>ACTION - ATTACK - DURATION</t>
+          <t>Action - Attack - Duration</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -4378,7 +4574,7 @@
       <c r="C253" s="1" t="n"/>
       <c r="D253" s="1" t="inlineStr">
         <is>
-          <t>ACTION - OMEN</t>
+          <t>Action - Omen</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -4391,7 +4587,7 @@
       <c r="C254" s="1" t="n"/>
       <c r="D254" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -4401,22 +4597,22 @@
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>PROMOS</t>
+          <t>Promos</t>
         </is>
       </c>
       <c r="B255" s="1" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C255" s="1" t="inlineStr">
         <is>
-          <t>THREE</t>
+          <t>Three</t>
         </is>
       </c>
       <c r="D255" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -4429,7 +4625,7 @@
       <c r="C256" s="1" t="n"/>
       <c r="D256" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -4441,12 +4637,12 @@
       <c r="B257" s="1" t="n"/>
       <c r="C257" s="1" t="inlineStr">
         <is>
-          <t>FOUR</t>
+          <t>Four</t>
         </is>
       </c>
       <c r="D257" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -4458,7 +4654,7 @@
       <c r="B258" s="1" t="n"/>
       <c r="C258" s="1" t="inlineStr">
         <is>
-          <t>FIVE</t>
+          <t>Five</t>
         </is>
       </c>
       <c r="D258" s="1" t="inlineStr"/>
@@ -4472,7 +4668,7 @@
       <c r="C259" s="1" t="n"/>
       <c r="D259" s="1" t="inlineStr">
         <is>
-          <t>ACTION</t>
+          <t>Action</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -4485,7 +4681,7 @@
       <c r="C260" s="1" t="n"/>
       <c r="D260" s="1" t="inlineStr">
         <is>
-          <t>TREASURE</t>
+          <t>Treasure</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -4497,12 +4693,12 @@
       <c r="B261" s="1" t="n"/>
       <c r="C261" s="1" t="inlineStr">
         <is>
-          <t>OTHER</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D261" s="1" t="inlineStr">
         <is>
-          <t>ACTION - DURATION</t>
+          <t>Action - Duration</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -4510,37 +4706,45 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="140">
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="C231:C239"/>
     <mergeCell ref="A115:A126"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C128:C129"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B52:B53"/>
     <mergeCell ref="C225:C226"/>
     <mergeCell ref="C94:C95"/>
     <mergeCell ref="C162:C165"/>
     <mergeCell ref="C134:C135"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="C78:C80"/>
     <mergeCell ref="C242:C243"/>
-    <mergeCell ref="C87:C89"/>
     <mergeCell ref="C258:C260"/>
+    <mergeCell ref="C132:C133"/>
     <mergeCell ref="C245:C247"/>
-    <mergeCell ref="B36:B44"/>
+    <mergeCell ref="B128:B129"/>
+    <mergeCell ref="C89:C91"/>
     <mergeCell ref="C251:C254"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B127:B130"/>
     <mergeCell ref="C60:C63"/>
     <mergeCell ref="B192:B204"/>
-    <mergeCell ref="B31:B35"/>
-    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="B54:B55"/>
     <mergeCell ref="C205:C207"/>
+    <mergeCell ref="B56:B57"/>
     <mergeCell ref="C192:C194"/>
     <mergeCell ref="C151:C154"/>
-    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="B97:B98"/>
+    <mergeCell ref="C14:C15"/>
     <mergeCell ref="C185:C186"/>
+    <mergeCell ref="B106:B107"/>
     <mergeCell ref="C214:C218"/>
     <mergeCell ref="C200:C203"/>
+    <mergeCell ref="C97:C98"/>
     <mergeCell ref="C54:C55"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B132:B133"/>
     <mergeCell ref="B58:B63"/>
     <mergeCell ref="C65:C66"/>
     <mergeCell ref="A94:A114"/>
@@ -4550,89 +4754,99 @@
     <mergeCell ref="B183:B191"/>
     <mergeCell ref="C248:C250"/>
     <mergeCell ref="A242:A254"/>
-    <mergeCell ref="C129:C130"/>
     <mergeCell ref="B150:B161"/>
-    <mergeCell ref="B131:B133"/>
-    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B75:B77"/>
+    <mergeCell ref="B108:B109"/>
     <mergeCell ref="B205:B219"/>
-    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="B102:B104"/>
+    <mergeCell ref="B30:B31"/>
     <mergeCell ref="C197:C199"/>
-    <mergeCell ref="C40:C42"/>
     <mergeCell ref="C211:C213"/>
+    <mergeCell ref="B32:B33"/>
     <mergeCell ref="B242:B254"/>
     <mergeCell ref="C34:C35"/>
     <mergeCell ref="C156:C160"/>
-    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B81:B82"/>
     <mergeCell ref="C116:C117"/>
+    <mergeCell ref="C27:C29"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B78:B80"/>
     <mergeCell ref="B220:B241"/>
     <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C73:C74"/>
     <mergeCell ref="A18:A35"/>
     <mergeCell ref="C139:C143"/>
     <mergeCell ref="C113:C114"/>
-    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B73:B74"/>
     <mergeCell ref="C50:C51"/>
+    <mergeCell ref="B89:B91"/>
     <mergeCell ref="B255:B261"/>
     <mergeCell ref="C255:C256"/>
     <mergeCell ref="C171:C174"/>
+    <mergeCell ref="C102:C104"/>
     <mergeCell ref="C118:C121"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A192:A204"/>
     <mergeCell ref="C183:C184"/>
-    <mergeCell ref="A192:A204"/>
-    <mergeCell ref="B64:B70"/>
+    <mergeCell ref="C21:C22"/>
     <mergeCell ref="C208:C210"/>
+    <mergeCell ref="B34:B35"/>
     <mergeCell ref="C36:C37"/>
-    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C45:C47"/>
     <mergeCell ref="A127:A133"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="C166:C170"/>
     <mergeCell ref="C240:C241"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="B94:B102"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="B42:B44"/>
     <mergeCell ref="C48:C49"/>
-    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C106:C107"/>
     <mergeCell ref="C122:C125"/>
-    <mergeCell ref="C38:C39"/>
     <mergeCell ref="C175:C181"/>
     <mergeCell ref="A255:A261"/>
     <mergeCell ref="A64:A83"/>
-    <mergeCell ref="B18:B26"/>
     <mergeCell ref="B134:B144"/>
-    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="C195:C196"/>
     <mergeCell ref="A145:A149"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="C195:C196"/>
     <mergeCell ref="A36:A57"/>
     <mergeCell ref="B162:B182"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B6:B8"/>
     <mergeCell ref="A58:A63"/>
-    <mergeCell ref="C105:C107"/>
     <mergeCell ref="A183:A191"/>
     <mergeCell ref="A2:A17"/>
     <mergeCell ref="C187:C188"/>
     <mergeCell ref="A150:A161"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B52:B57"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B48:B49"/>
     <mergeCell ref="C227:C230"/>
     <mergeCell ref="A205:A219"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B108:B114"/>
-    <mergeCell ref="C99:C100"/>
-    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="A134:A144"/>
     <mergeCell ref="B115:B126"/>
-    <mergeCell ref="B45:B51"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C52:C53"/>
     <mergeCell ref="C220:C224"/>
     <mergeCell ref="A162:A182"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="B27:B29"/>
     <mergeCell ref="A220:A241"/>
     <mergeCell ref="C136:C137"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="B113:B114"/>
     <mergeCell ref="B145:B149"/>
-    <mergeCell ref="B2:B8"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C108:C109"/>
+    <mergeCell ref="B50:B51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
